--- a/src/templates/Training_Template.xlsx
+++ b/src/templates/Training_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Desktop\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FE6F9-2B35-4757-8597-DC48223F44AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA78C7BC-6491-4DB2-AFED-BB081C5B9F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Region</t>
   </si>
@@ -108,13 +108,22 @@
     <t>Tad Hotel</t>
   </si>
   <si>
-    <t>Participants</t>
-  </si>
-  <si>
     <t>Any</t>
   </si>
   <si>
-    <t>Region 4</t>
+    <t>Name of Trainee</t>
+  </si>
+  <si>
+    <t>Matthew Romero</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -335,6 +344,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -343,7 +363,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4AD83AF9-533F-4CCA-A2D8-C29117E50E8F}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="8" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="8" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -594,87 +629,96 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="12.5703125" style="2"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" customWidth="1"/>
+    <col min="14" max="15" width="20.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -682,55 +726,63 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -745,52 +797,60 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44582</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="11">
+        <v>44582</v>
+      </c>
+      <c r="J7" s="17">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="11">
+      <c r="N7" s="11">
         <v>44582</v>
       </c>
-      <c r="L7" s="11">
+      <c r="O7" s="11">
         <v>44582</v>
       </c>
-      <c r="M7" s="12">
-        <v>30</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="P7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -805,8 +865,10 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -821,8 +883,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -832,13 +896,15 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -848,13 +914,15 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -864,13 +932,15 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -880,13 +950,15 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -896,13 +968,15 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -912,13 +986,15 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -928,13 +1004,15 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -944,13 +1022,15 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -960,13 +1040,15 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -976,13 +1058,15 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -997,8 +1081,10 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1013,8 +1099,10 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1029,8 +1117,10 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1045,8 +1135,10 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1061,8 +1153,10 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1077,8 +1171,10 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1093,8 +1189,10 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1109,8 +1207,10 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1125,8 +1225,10 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1141,8 +1243,10 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1157,8 +1261,10 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1173,8 +1279,10 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1189,8 +1297,10 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1205,8 +1315,10 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1221,8 +1333,10 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1237,8 +1351,10 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1253,8 +1369,10 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1269,8 +1387,10 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1285,8 +1405,10 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1301,8 +1423,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1317,8 +1441,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1333,8 +1459,10 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1349,8 +1477,10 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1365,23 +1495,30 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZhaN/0Ipei9naaKdJYA+yQvJhjcM+PaKgr8sfEaiZ/g7uZD+ey55m0oeWZniQPZdSFB3E2r3qbUgQSvQrGZWcw==" saltValue="muaWN3c6aPBFJ8SGAvZVhw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>$B$2=ROW()</formula>
+  <conditionalFormatting sqref="A7:B7">
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>$C$2=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
+  <conditionalFormatting sqref="K7:O7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C$2=ROW()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B$2=ROW()</formula>
+      <formula>$C$2=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
